--- a/src/Facebook_scraping.xlsx
+++ b/src/Facebook_scraping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tendo\OneDrive\Documents\cv\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB68A5-F9DB-462E-BD45-58EF52F2B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD48761-C1D9-4DCD-8D5A-4A2DC4E1F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34605" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="272">
   <si>
     <t>Precio</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Tsuru</t>
   </si>
   <si>
-    <t>Nissan 2008</t>
-  </si>
-  <si>
     <t>Corsa Comfort</t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t>Álvaro Obregón</t>
   </si>
   <si>
-    <t>MINI</t>
-  </si>
-  <si>
     <t>Salt</t>
   </si>
   <si>
@@ -839,6 +833,9 @@
   </si>
   <si>
     <t>Nitro</t>
+  </si>
+  <si>
+    <t>Mini</t>
   </si>
 </sst>
 </file>
@@ -1127,8 +1124,8 @@
   </sheetPr>
   <dimension ref="A1:P999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H187" sqref="H187"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2575,10 +2572,10 @@
         <v>2024</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>122</v>
@@ -2601,7 +2598,7 @@
         <v>53</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>122</v>
@@ -2624,7 +2621,7 @@
         <v>39</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>109</v>
@@ -2650,7 +2647,7 @@
         <v>63</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>110</v>
@@ -2670,7 +2667,7 @@
         <v>39</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>109</v>
@@ -2716,7 +2713,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>124</v>
@@ -2759,10 +2756,10 @@
         <v>2003</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>109</v>
@@ -2785,7 +2782,7 @@
         <v>53</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>109</v>
@@ -2831,7 +2828,7 @@
         <v>39</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>124</v>
@@ -2900,7 +2897,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>122</v>
@@ -2923,7 +2920,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>109</v>
@@ -2946,7 +2943,7 @@
         <v>39</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>109</v>
@@ -2969,7 +2966,7 @@
         <v>57</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>109</v>
@@ -3015,7 +3012,7 @@
         <v>53</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>109</v>
@@ -3038,7 +3035,7 @@
         <v>39</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>109</v>
@@ -3058,10 +3055,10 @@
         <v>2008</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>109</v>
@@ -3107,10 +3104,10 @@
         <v>13</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>110</v>
@@ -3153,10 +3150,10 @@
         <v>13</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>110</v>
@@ -3176,7 +3173,7 @@
         <v>53</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>109</v>
@@ -3265,7 +3262,7 @@
         <v>2025</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>117</v>
@@ -3291,10 +3288,10 @@
         <v>21</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>110</v>
@@ -3337,10 +3334,10 @@
         <v>21</v>
       </c>
       <c r="D96" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>42</v>
@@ -3360,10 +3357,10 @@
         <v>39</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>16</v>
@@ -3426,10 +3423,10 @@
         <v>2014</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>41</v>
@@ -3472,13 +3469,13 @@
         <v>2019</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>20</v>
@@ -3495,13 +3492,13 @@
         <v>2024</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>38</v>
@@ -3518,13 +3515,13 @@
         <v>2024</v>
       </c>
       <c r="C104" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>42</v>
@@ -3544,10 +3541,10 @@
         <v>39</v>
       </c>
       <c r="D105" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>42</v>
@@ -3564,10 +3561,10 @@
         <v>2016</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>94</v>
@@ -3613,10 +3610,10 @@
         <v>53</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>38</v>
@@ -3627,7 +3624,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B109" s="5">
         <v>2022</v>
@@ -3636,7 +3633,7 @@
         <v>53</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>92</v>
@@ -3659,10 +3656,10 @@
         <v>57</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>20</v>
@@ -3679,13 +3676,13 @@
         <v>2014</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>38</v>
@@ -3705,10 +3702,10 @@
         <v>39</v>
       </c>
       <c r="D112" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>42</v>
@@ -3731,7 +3728,7 @@
         <v>63</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>38</v>
@@ -3754,7 +3751,7 @@
         <v>59</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>20</v>
@@ -3771,13 +3768,13 @@
         <v>2024</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>20</v>
@@ -3794,10 +3791,10 @@
         <v>2016</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>41</v>
@@ -3817,13 +3814,13 @@
         <v>2020</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>20</v>
@@ -3840,10 +3837,10 @@
         <v>2022</v>
       </c>
       <c r="C118" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>41</v>
@@ -3869,7 +3866,7 @@
         <v>87</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>42</v>
@@ -3880,7 +3877,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B120" s="5">
         <v>2015</v>
@@ -3889,13 +3886,13 @@
         <v>39</v>
       </c>
       <c r="D120" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>59</v>
@@ -3903,7 +3900,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>59</v>
@@ -3915,7 +3912,7 @@
         <v>59</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>20</v>
@@ -3938,7 +3935,7 @@
         <v>59</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>38</v>
@@ -3949,7 +3946,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B123" s="5">
         <v>2001</v>
@@ -3961,7 +3958,7 @@
         <v>64</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>42</v>
@@ -3972,7 +3969,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B124" s="5">
         <v>2002</v>
@@ -3981,10 +3978,10 @@
         <v>53</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>20</v>
@@ -3995,7 +3992,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B125" s="5">
         <v>2000</v>
@@ -4027,7 +4024,7 @@
         <v>13</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>69</v>
@@ -4047,7 +4044,7 @@
         <v>2003</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>45</v>
@@ -4087,7 +4084,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B129" s="5">
         <v>2013</v>
@@ -4162,10 +4159,10 @@
         <v>2011</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>102</v>
@@ -4185,10 +4182,10 @@
         <v>2016</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>102</v>
@@ -4237,7 +4234,7 @@
         <v>96</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>45</v>
@@ -4257,7 +4254,7 @@
         <v>7</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>102</v>
@@ -4271,16 +4268,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B137" s="5">
         <v>2018</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>55</v>
@@ -4349,7 +4346,7 @@
         <v>53</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>9</v>
@@ -4369,7 +4366,7 @@
         <v>2011</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>59</v>
@@ -4444,7 +4441,7 @@
         <v>51</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>45</v>
@@ -4467,7 +4464,7 @@
         <v>59</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>45</v>
@@ -4487,10 +4484,10 @@
         <v>53</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>45</v>
@@ -4510,7 +4507,7 @@
         <v>66</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>9</v>
@@ -4530,7 +4527,7 @@
         <v>2013</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D148" s="5">
         <v>3</v>
@@ -4556,7 +4553,7 @@
         <v>39</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>102</v>
@@ -4570,16 +4567,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B150" s="5">
         <v>2021</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>55</v>
@@ -4605,7 +4602,7 @@
         <v>56</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>45</v>
@@ -4717,7 +4714,7 @@
         <v>34</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>102</v>
@@ -4731,19 +4728,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B157" s="5">
         <v>2010</v>
       </c>
       <c r="C157" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E157" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>30</v>
@@ -4809,7 +4806,7 @@
         <v>13</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>102</v>
@@ -4832,7 +4829,7 @@
         <v>34</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>15</v>
@@ -4855,7 +4852,7 @@
         <v>13</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>15</v>
@@ -4878,10 +4875,10 @@
         <v>39</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>24</v>
@@ -4898,10 +4895,10 @@
         <v>2014</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>15</v>
@@ -4944,16 +4941,16 @@
         <v>2013</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D166" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F166" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="G166" s="6">
         <v>18000</v>
@@ -4973,7 +4970,7 @@
         <v>59</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>38</v>
@@ -5019,10 +5016,10 @@
         <v>51</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G169" s="6">
         <v>14000</v>
@@ -5042,7 +5039,7 @@
         <v>59</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>50</v>
@@ -5088,10 +5085,10 @@
         <v>8</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G172" s="6">
         <v>11000</v>
@@ -5108,7 +5105,7 @@
         <v>13</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>9</v>
@@ -5134,7 +5131,7 @@
         <v>59</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>50</v>
@@ -5151,16 +5148,16 @@
         <v>2008</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G175" s="6">
         <v>200000</v>
@@ -5177,13 +5174,13 @@
         <v>53</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G176" s="6">
         <v>980</v>
@@ -5200,13 +5197,13 @@
         <v>39</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G177" s="6">
         <v>980</v>
@@ -5220,16 +5217,16 @@
         <v>2010</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G178" s="6">
         <v>200000</v>
@@ -5246,13 +5243,13 @@
         <v>27</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G179" s="6">
         <v>159000</v>
@@ -5295,10 +5292,10 @@
         <v>59</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G181" s="6" t="s">
         <v>59</v>
@@ -5315,13 +5312,13 @@
         <v>34</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G182" s="6">
         <v>300</v>
@@ -5335,10 +5332,10 @@
         <v>2019</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>83</v>
@@ -5364,10 +5361,10 @@
         <v>59</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G184" s="6" t="s">
         <v>59</v>
@@ -5387,7 +5384,7 @@
         <v>59</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>24</v>
@@ -5407,13 +5404,13 @@
         <v>39</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G186" s="6">
         <v>8800</v>
@@ -5433,7 +5430,7 @@
         <v>63</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>10</v>
@@ -5456,10 +5453,10 @@
         <v>59</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G188" s="6" t="s">
         <v>59</v>
@@ -5522,7 +5519,7 @@
         <v>27</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>97</v>
@@ -5548,10 +5545,10 @@
         <v>59</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G192" s="6" t="s">
         <v>59</v>
@@ -5565,10 +5562,10 @@
         <v>2024</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>95</v>
@@ -5591,13 +5588,13 @@
         <v>53</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G194" s="6">
         <v>98</v>
@@ -5605,7 +5602,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>59</v>
@@ -5617,7 +5614,7 @@
         <v>59</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>16</v>
@@ -5628,7 +5625,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B196" s="5">
         <v>2015</v>
@@ -5637,13 +5634,13 @@
         <v>39</v>
       </c>
       <c r="D196" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F196" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>59</v>
@@ -5651,7 +5648,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>59</v>
@@ -5663,10 +5660,10 @@
         <v>59</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>59</v>
@@ -5674,22 +5671,22 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B198" s="5">
         <v>2025</v>
       </c>
       <c r="C198" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F198" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="G198" s="6" t="s">
         <v>59</v>
@@ -5697,7 +5694,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>59</v>
@@ -5709,10 +5706,10 @@
         <v>59</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G199" s="6" t="s">
         <v>59</v>
@@ -5720,7 +5717,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>59</v>
@@ -5732,7 +5729,7 @@
         <v>59</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>16</v>
@@ -5752,13 +5749,13 @@
         <v>7</v>
       </c>
       <c r="D201" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F201" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="G201" s="6">
         <v>127</v>
@@ -5775,13 +5772,13 @@
         <v>105</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G202" s="6">
         <v>165</v>
@@ -5789,7 +5786,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>59</v>
@@ -5801,10 +5798,10 @@
         <v>59</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G203" s="6" t="s">
         <v>59</v>
@@ -5812,22 +5809,22 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B204" s="5">
         <v>2017</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G204" s="6">
         <v>23000</v>
@@ -5835,7 +5832,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B205" s="5">
         <v>2014</v>
@@ -5844,13 +5841,13 @@
         <v>53</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G205" s="6">
         <v>130</v>
@@ -5867,13 +5864,13 @@
         <v>13</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G206" s="6">
         <v>75</v>
@@ -5881,7 +5878,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>59</v>
@@ -5893,10 +5890,10 @@
         <v>59</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G207" s="6" t="s">
         <v>59</v>
@@ -5910,16 +5907,16 @@
         <v>2010</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G208" s="6" t="s">
         <v>59</v>
@@ -5927,7 +5924,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>59</v>
@@ -5939,10 +5936,10 @@
         <v>59</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G209" s="6" t="s">
         <v>59</v>
@@ -5956,16 +5953,16 @@
         <v>2015</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G210" s="6">
         <v>108</v>
@@ -5985,10 +5982,10 @@
         <v>59</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G211" s="6" t="s">
         <v>59</v>
@@ -6008,10 +6005,10 @@
         <v>8</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G212" s="6">
         <v>116000</v>
@@ -6031,10 +6028,10 @@
         <v>54</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G213" s="6">
         <v>139000</v>
@@ -6048,16 +6045,16 @@
         <v>2015</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G214" s="6">
         <v>152000</v>
@@ -6077,10 +6074,10 @@
         <v>59</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>59</v>
@@ -6097,13 +6094,13 @@
         <v>21</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G216" s="6">
         <v>136</v>
@@ -6123,10 +6120,10 @@
         <v>59</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G217" s="6" t="s">
         <v>59</v>
@@ -6143,13 +6140,13 @@
         <v>53</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G218" s="6">
         <v>98</v>
@@ -6166,13 +6163,13 @@
         <v>53</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G219" s="6">
         <v>725</v>
@@ -6192,10 +6189,10 @@
         <v>8</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G220" s="6">
         <v>135</v>
@@ -6215,10 +6212,10 @@
         <v>59</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>59</v>
@@ -6238,10 +6235,10 @@
         <v>59</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G222" s="6" t="s">
         <v>59</v>
@@ -6261,10 +6258,10 @@
         <v>59</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>59</v>
@@ -6281,13 +6278,13 @@
         <v>53</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G224" s="6">
         <v>123</v>
@@ -6304,13 +6301,13 @@
         <v>53</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G225" s="6">
         <v>29</v>
@@ -6330,10 +6327,10 @@
         <v>59</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G226" s="6">
         <v>999</v>
@@ -6347,13 +6344,13 @@
         <v>2013</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>16</v>
@@ -6376,10 +6373,10 @@
         <v>59</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G228" s="6" t="s">
         <v>59</v>
@@ -6393,16 +6390,16 @@
         <v>2017</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G229" s="6">
         <v>100000</v>
@@ -6419,13 +6416,13 @@
         <v>53</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G230" s="6">
         <v>145000</v>
@@ -6468,10 +6465,10 @@
         <v>101</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G232" s="6">
         <v>120000</v>
@@ -6488,13 +6485,13 @@
         <v>53</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G233" s="6">
         <v>123000</v>
@@ -6514,7 +6511,7 @@
         <v>8</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>30</v>
@@ -6534,13 +6531,13 @@
         <v>34</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G235" s="6">
         <v>74000</v>
@@ -6557,7 +6554,7 @@
         <v>13</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>15</v>
@@ -6580,13 +6577,13 @@
         <v>39</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G237" s="6">
         <v>82000</v>
@@ -6603,13 +6600,13 @@
         <v>105</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G238" s="6">
         <v>165000</v>
@@ -6623,16 +6620,16 @@
         <v>2017</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G239" s="6">
         <v>600000</v>
@@ -6649,13 +6646,13 @@
         <v>34</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G240" s="6">
         <v>123</v>
@@ -6675,7 +6672,7 @@
         <v>98</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>16</v>
@@ -6695,10 +6692,10 @@
         <v>39</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>30</v>
@@ -6718,10 +6715,10 @@
         <v>39</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>30</v>
@@ -6741,10 +6738,10 @@
         <v>105</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>16</v>
@@ -6764,7 +6761,7 @@
         <v>39</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>83</v>
@@ -6784,10 +6781,10 @@
         <v>2011</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>15</v>
@@ -6810,7 +6807,7 @@
         <v>39</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>15</v>
@@ -6833,7 +6830,7 @@
         <v>34</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>15</v>
